--- a/ridership/weekly/2016_29.xlsx
+++ b/ridership/weekly/2016_29.xlsx
@@ -207,7 +207,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>252</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>101</c:v>
@@ -271,7 +271,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>87.78</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>88.91</c:v>
@@ -283,7 +283,7 @@
                   <c:v>94.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.4</c:v>
+                  <c:v>89.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>37.86</c:v>
@@ -813,7 +813,7 @@
         <v>151</v>
       </c>
       <c r="D2">
-        <v>87.78</v>
+        <v>88.1</v>
       </c>
       <c r="E2">
         <v>67.61</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D6">
-        <v>89.4</v>
+        <v>89.7</v>
       </c>
       <c r="E6">
         <v>68.21</v>
